--- a/input_csv/10_TFTs/artikel.xlsx
+++ b/input_csv/10_TFTs/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\10_TFTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3B6469-511F-48A3-BAFC-1F82F1A04098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A089CCC-7163-49DA-A6E2-9DE39CB7E246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B3BE59F-AC46-4225-8BCB-FF6D40A06C49}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,23 +31,41 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>ASUS ProArt PA279CRV - LED-Monitor - 68.6 cm (27")</t>
-  </si>
-  <si>
-    <t>4,71108E+12</t>
-  </si>
-  <si>
-    <t>MSI MAG 321CQFDE E18 Gaming Monitor WQHD 180Hz 32" Curved</t>
-  </si>
-  <si>
-    <t>Samsung Odyssey G7 (G70D) 4K UHD 144 Hz 1 ms Gaming Monitor 27"</t>
+    <t>24 Zoll TFT - Full HD - IPS - HDMI</t>
+  </si>
+  <si>
+    <t>27 Zoll TFT - FHD - HDMI</t>
+  </si>
+  <si>
+    <t>MSI MAG MAG 274CQFDE  Esport-Gaming Monitor</t>
+  </si>
+  <si>
+    <t>MSI MPG 271QRXDE QD-OLED 26,5 Zoll WQHD</t>
+  </si>
+  <si>
+    <t>MSI MPG 321CURXDE QD-OLED 32 Zoll UHD 4K</t>
+  </si>
+  <si>
+    <t>MSI MPG 321URXWDE QD-OLED 32 Zoll UHD 4K</t>
+  </si>
+  <si>
+    <t>Samsung Odyssey G5 S27CG554EU G55C 27"</t>
+  </si>
+  <si>
+    <t>Samsung Odyssey G7 (G70D) 4K UHD 144Hz</t>
+  </si>
+  <si>
+    <t>Samsung Odyssey Smart G6 (G65B) WQHD 240Hz</t>
+  </si>
+  <si>
+    <t>MSI MAG 321CQFDE E18 Gaming Monitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +196,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,9 +549,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C71F47-CC4A-4EAB-AB2A-1178537203C3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,33 +956,105 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>106532</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="2">
+        <v>10914</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>107008</v>
-      </c>
-      <c r="C3">
-        <v>4711377320337</v>
+        <v>101568</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>107019</v>
+      </c>
+      <c r="C4">
+        <v>4711377252546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
+        <v>107013</v>
+      </c>
+      <c r="C5">
+        <v>4711377159425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>107011</v>
+      </c>
+      <c r="C6">
+        <v>4711377159449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>107012</v>
+      </c>
+      <c r="C7">
+        <v>4711377266604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106805</v>
+      </c>
+      <c r="C8">
+        <v>8806095337234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
         <v>107003</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>8806095723945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>107002</v>
+      </c>
+      <c r="C10">
+        <v>8806094192599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>107008</v>
+      </c>
+      <c r="C11">
+        <v>4711377320337</v>
       </c>
     </row>
   </sheetData>
